--- a/DMS/Templates/StoreScouting_Template.xlsx
+++ b/DMS/Templates/StoreScouting_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9934E621-F121-4490-99D2-EE48165901D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF57FE0-15A2-482B-A74C-1DEFF43A7C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreScouting" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Ward" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StoreScouting!$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StoreScouting!$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Tên Phường/Xã</t>
-  </si>
-  <si>
-    <t>Mã đại lý cắm cờ</t>
   </si>
   <si>
     <t>Điện thoại chủ đại lý *</t>
@@ -181,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -198,6 +195,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,95 +510,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="27.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.125" style="3"/>
+    <col min="2" max="2" width="24.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Hoạt động, Không hoạt động"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Chính thức, Dự thảo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Cửa hàng tiềm năng; Đại lý đối thủ"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DMS/Templates/StoreScouting_Template.xlsx
+++ b/DMS/Templates/StoreScouting_Template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dotNet\DMS\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF57FE0-15A2-482B-A74C-1DEFF43A7C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E0AB3-C843-4290-9C56-94A6CA1F3CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StoreScouting" sheetId="1" r:id="rId1"/>
-    <sheet name="Org" sheetId="2" r:id="rId2"/>
-    <sheet name="Province" sheetId="12" r:id="rId3"/>
-    <sheet name="District" sheetId="11" r:id="rId4"/>
-    <sheet name="Ward" sheetId="10" r:id="rId5"/>
+    <sheet name="Đại lý cắm cờ" sheetId="1" r:id="rId1"/>
+    <sheet name="Đơn vị tổ chức" sheetId="2" r:id="rId2"/>
+    <sheet name="Tỉnh, Thành phố" sheetId="12" r:id="rId3"/>
+    <sheet name="Quận, Huyện" sheetId="11" r:id="rId4"/>
+    <sheet name="Phường, Xã" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StoreScouting!$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Đại lý cắm cờ'!$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -111,7 +111,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,7 +119,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -512,31 +512,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="22" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.125" style="3"/>
+    <col min="12" max="12" width="20.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -606,19 +606,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
-    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -626,22 +626,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -658,14 +658,14 @@
       <selection activeCell="A2" sqref="A2:B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="47.875" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -673,22 +673,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -704,14 +704,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -722,22 +722,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -753,15 +753,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>

--- a/DMS/Templates/StoreScouting_Template.xlsx
+++ b/DMS/Templates/StoreScouting_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dotNet\DMS\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E0AB3-C843-4290-9C56-94A6CA1F3CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201A4ED1-A9EA-41E1-842A-ACB4CD4F3F4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đại lý cắm cờ" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
